--- a/data/trans_dic/P23_8_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_8_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 98,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +705,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,52 +715,82 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>12,57%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>11,81%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>4,55%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,63%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>12,18%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,24</t>
+          <t>3,22; 6,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,41</t>
+          <t>2,61; 5,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,6</t>
+          <t>3,95; 7,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,22; 15,2</t>
+          <t>5,11; 9,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,78</t>
+          <t>10,22; 15,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,94</t>
+          <t>11,41; 18,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 9,74</t>
+          <t>4,12; 7,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,75; 15,08</t>
+          <t>3,88; 6,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,55</t>
+          <t>6,05; 9,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,67</t>
+          <t>7,74; 13,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,04</t>
+          <t>9,63; 14,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,89</t>
+          <t>9,43; 14,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 6,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 5,74</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 8,3</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,01; 10,84</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 14,27</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 15,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>8,34%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,97</t>
+          <t>3,69; 9,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 10,15</t>
+          <t>3,57; 10,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,07</t>
+          <t>3,31; 6,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 16,68</t>
+          <t>5,02; 11,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,95</t>
+          <t>7,92; 16,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,28</t>
+          <t>10,74; 20,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,62</t>
+          <t>5,64; 11,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,96</t>
+          <t>4,23; 7,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,24</t>
+          <t>3,09; 6,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,22</t>
+          <t>6,73; 12,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,12</t>
+          <t>6,4; 16,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,1</t>
+          <t>6,37; 15,2</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 9,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 8,11</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 6,21</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 10,8</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8,22; 14,37</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 16,91</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,41%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>6,12%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>6,52%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,08%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 11,43</t>
+          <t>2,73; 11,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 22,16</t>
+          <t>3,61; 21,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 19,51</t>
+          <t>4,23; 15,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,73; 14,37</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 11,68</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,93</t>
+          <t>3,14; 12,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,12; 9,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 10,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 18,27</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 9,34</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 12,52</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 12,67</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 10,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 14,25</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 11,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 13,89</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>12,33%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,64%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>11,94%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,89</t>
+          <t>4,01; 7,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,29</t>
+          <t>3,89; 7,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,51; 7,12</t>
+          <t>4,43; 6,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 14,69</t>
+          <t>5,8; 9,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,18</t>
+          <t>10,36; 14,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,67</t>
+          <t>12,05; 17,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,79</t>
+          <t>5,26; 8,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 13,85</t>
+          <t>4,48; 6,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 6,93</t>
+          <t>5,4; 7,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,53</t>
+          <t>8,08; 11,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,06</t>
+          <t>9,48; 13,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,57</t>
+          <t>9,35; 13,27</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 7,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 6,46</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 7,04</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 9,99</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 13,51</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 14,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas económicos (tasa de respuesta: 98,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>76817</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>60669</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>89338</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>117895</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27834</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31441</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>102488</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>92044</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>137905</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>177205</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27261</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26807</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>179305</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>152713</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>227243</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>295100</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>55095</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>58248</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52277; 106945</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>41978; 90747</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>64332; 121827</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>82334; 158398</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22639; 34622</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25347; 40471</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72826; 136284</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>67850; 120302</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108204; 173888</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>134113; 231130</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22236; 33092</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21868; 32974</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>143422; 226298</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>120224; 192574</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>187559; 283602</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>234596; 362513</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>48104; 64548</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>50438; 68736</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77944</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79992</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>66823</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>104154</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8131</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10880</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>110413</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78974</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63824</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>120046</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6748</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6872</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>188357</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>158966</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>130647</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>224199</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>14879</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17752</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49474; 123408</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>48289; 136394</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44934; 93430</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>68081; 159954</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5566; 11513</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7722; 14789</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>77665; 162536</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>56521; 105191</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>42118; 89423</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89779; 161458</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4059; 10448</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4249; 10135</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>139104; 256221</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>118320; 217982</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>99125; 168979</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>176089; 290295</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>10988; 19215</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>13814; 23440</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26374</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36216</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33798</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27230</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27992</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19470</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28324</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>44385</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>54366</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>55687</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>62123</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>71615</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11216; 47376</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14568; 85900</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17720; 63333</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10863; 57233</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12823; 50965</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8306; 37398</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14803; 44092</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25454; 73902</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>34617; 85526</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>30291; 113308</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>36222; 95119</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>43636; 111488</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>181135</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>176877</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>189959</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>249279</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35965</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>42322</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>240893</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>190488</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>230053</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>341635</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34009</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33678</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>422028</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>367365</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>420013</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>590915</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>69974</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>76000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>135413; 237582</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>130940; 253989</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>150974; 236599</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>195062; 315088</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30228; 42776</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35436; 51660</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>186770; 306096</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>155520; 235929</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>192302; 282285</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>280419; 415486</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27895; 41019</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27924; 39620</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>354930; 505456</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>306860; 441897</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>368058; 490120</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>502564; 683233</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>60939; 79187</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>66640; 86513</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
